--- a/docs/zhihu/zhihu_user_activities.xlsx
+++ b/docs/zhihu/zhihu_user_activities.xlsx
@@ -262,133 +262,133 @@
     <t>我发现在我们大学的女生“设备”比男生普遍好得多，这是怎么回事？难道有女孩的家庭普遍比较富裕吗？</t>
   </si>
   <si>
-    <t>https://api.zhihu.com/topics/21279746</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/372788468</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/articles/101939072</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/355435144</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/355922909</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/322478312</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/360101168</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/360252172</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/329682076</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/308384808</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/350503331</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/269773382</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/31185891</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/26766288</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/339074073</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/345270314</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/315638245</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/287226331</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/339791882</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/305473176</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/333926172</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/332198750</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/319730231</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/317398256</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/306919437</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/308523423</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/311291752</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/311362417</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/306547125</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/columns/c_1066340996828229632</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/310829276</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/49418231</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/295114371</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/302955152</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/302001219</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/274396370</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/66580671</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/32733003</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/58814063</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/294213474</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/276010879</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/articles/39127589</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/questions/296557383</t>
+    <t>https://www.zhihu.com/topic/21279746</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/372788468</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/article/101939072</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/355435144</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/355922909</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/322478312</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/360101168</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/360252172</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/329682076</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/308384808</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/350503331</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/269773382</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/31185891</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/26766288</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/339074073</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/345270314</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/315638245</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/287226331</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/339791882</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/305473176</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/333926172</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/332198750</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/319730231</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/317398256</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/306919437</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/308523423</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/311291752</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/311362417</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/306547125</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/column/c_1066340996828229632</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/310829276</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/49418231</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/295114371</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/302955152</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/302001219</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/274396370</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/66580671</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/32733003</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/58814063</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/294213474</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/276010879</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/article/39127589</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/296557383</t>
   </si>
   <si>
     <t>四果汤特</t>
@@ -865,106 +865,106 @@
     <t>BB姬</t>
   </si>
   <si>
-    <t>https://api.zhihu.com/people/12d3ed9df726abfab26821d85aedd9c8</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/357382e2f8da0029f557a50cc62abdfb</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/b96c1eb685d476d5fe284dce4ee8c2aa</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/0925fdde7bb8713448204961b24c57f1</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/c4208727f4c71848e81cbed49334cd6b</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/5f611596e884f35c192263532ce89e0b</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/1387ca1c218acb18af0771a0fa4f7df8</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/e1bbd19ba84bb9ee524736266332f597</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/187a7e2c3320f7e77b2bd5ffcaf03f36</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/040fd8f92054fa060ebc8366bde59d6c</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/02eee2b9b7fe33ebb6ca0f8d0b258052</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/63841aed242a38c2145adb9fceb49578</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/365b578a3a069da087904893d2b87a73</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/abbbb41790b89de00b35a8b3aab0fab5</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/f21030321a38c8875cc00f1e57ab3d61</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/b1d4be77b2a286e2e767811cff2abf03</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/15a229fc49cd128434ab0c4b45f40944</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/fc0892ffdaac19f492547f63df74964f</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/b529810998a7030922750a401a844993</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/c1337b0ce656974c66ccd07d73597e29</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/108fe8320f01f648527faa07e16bdb51</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/e0a3f8e3558c88fec9c1672ceb6a09ad</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/80cd1936644ac4852706aa10dbd99204</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/587cbb9a7467f719bcb21230c943e060</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/efa686201743c70f1f51ac2033b14e62</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/587a7082886e97321211db73c386d3c5</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/89761ece2055a9c454b563efc873e798</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/ff2fbb035f04b4ff52802634f1410833</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/226326edaa10a530497c65d3fbc8b139</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/9c01bf63ce681865c8460cc0b85baf84</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/7dd85ee3332aa71da9471aebc1a99b46</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/4be9dbed0231b42c6593cc64fb9182d7</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/39273b1bf8ddb102e83bbd45e3e7241c</t>
-  </si>
-  <si>
-    <t>https://api.zhihu.com/people/f887d96ba68a0faf5ca244cef96e643d</t>
+    <t>https://www.zhihu.com/people/12d3ed9df726abfab26821d85aedd9c8</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/357382e2f8da0029f557a50cc62abdfb</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/b96c1eb685d476d5fe284dce4ee8c2aa</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/0925fdde7bb8713448204961b24c57f1</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/c4208727f4c71848e81cbed49334cd6b</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/5f611596e884f35c192263532ce89e0b</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/1387ca1c218acb18af0771a0fa4f7df8</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/e1bbd19ba84bb9ee524736266332f597</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/187a7e2c3320f7e77b2bd5ffcaf03f36</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/040fd8f92054fa060ebc8366bde59d6c</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/02eee2b9b7fe33ebb6ca0f8d0b258052</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/63841aed242a38c2145adb9fceb49578</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/365b578a3a069da087904893d2b87a73</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/abbbb41790b89de00b35a8b3aab0fab5</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/f21030321a38c8875cc00f1e57ab3d61</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/b1d4be77b2a286e2e767811cff2abf03</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/15a229fc49cd128434ab0c4b45f40944</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/fc0892ffdaac19f492547f63df74964f</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/b529810998a7030922750a401a844993</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/c1337b0ce656974c66ccd07d73597e29</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/108fe8320f01f648527faa07e16bdb51</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/e0a3f8e3558c88fec9c1672ceb6a09ad</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/80cd1936644ac4852706aa10dbd99204</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/587cbb9a7467f719bcb21230c943e060</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/efa686201743c70f1f51ac2033b14e62</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/587a7082886e97321211db73c386d3c5</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/89761ece2055a9c454b563efc873e798</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/ff2fbb035f04b4ff52802634f1410833</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/226326edaa10a530497c65d3fbc8b139</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/9c01bf63ce681865c8460cc0b85baf84</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/7dd85ee3332aa71da9471aebc1a99b46</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/4be9dbed0231b42c6593cc64fb9182d7</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/39273b1bf8ddb102e83bbd45e3e7241c</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/people/f887d96ba68a0faf5ca244cef96e643d</t>
   </si>
   <si>
     <t>关注了话题</t>
@@ -989,6 +989,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1052,12 +1055,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1420,13 +1424,13 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2">
-        <v>1588656446829</v>
+        <v>1588656446256</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K2">
-        <v>1588656446</v>
+      <c r="K2" s="3">
+        <v>43956.56071759259</v>
       </c>
       <c r="S2" t="s">
         <v>317</v>
@@ -1434,7 +1438,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3">
-        <v>1582786403172</v>
+        <v>1582786403216</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -1457,14 +1461,14 @@
       <c r="I3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J3">
-        <v>1582013936</v>
-      </c>
-      <c r="K3">
-        <v>1582786403</v>
-      </c>
-      <c r="L3">
-        <v>1582786403</v>
+      <c r="J3" s="3">
+        <v>43879.67981481482</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43888.6204050926</v>
+      </c>
+      <c r="L3" s="3">
+        <v>43888.6204050926</v>
       </c>
       <c r="M3" t="s">
         <v>188</v>
@@ -1490,7 +1494,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4">
-        <v>1578814022124</v>
+        <v>1578814022064</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -1498,8 +1502,8 @@
       <c r="G4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K4">
-        <v>1578814022</v>
+      <c r="K4" s="3">
+        <v>43842.64377314815</v>
       </c>
       <c r="M4" t="s">
         <v>189</v>
@@ -1522,7 +1526,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5">
-        <v>1576561541664</v>
+        <v>1576561541351</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1545,14 +1549,14 @@
       <c r="H5" t="s">
         <v>126</v>
       </c>
-      <c r="J5">
-        <v>1573531723</v>
-      </c>
-      <c r="K5">
-        <v>1576561541</v>
-      </c>
-      <c r="L5">
-        <v>1576561541</v>
+      <c r="J5" s="3">
+        <v>43781.50605324074</v>
+      </c>
+      <c r="K5" s="3">
+        <v>43816.5733912037</v>
+      </c>
+      <c r="L5" s="3">
+        <v>43816.5733912037</v>
       </c>
       <c r="M5" t="s">
         <v>190</v>
@@ -1578,7 +1582,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6">
-        <v>1576561086589</v>
+        <v>1576561086552</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1604,14 +1608,14 @@
       <c r="I6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J6">
-        <v>1573776207</v>
-      </c>
-      <c r="K6">
-        <v>1576561086</v>
-      </c>
-      <c r="L6">
-        <v>1593346852</v>
+      <c r="J6" s="3">
+        <v>43784.33572916667</v>
+      </c>
+      <c r="K6" s="3">
+        <v>43816.568125</v>
+      </c>
+      <c r="L6" s="3">
+        <v>44010.84782407407</v>
       </c>
       <c r="M6" t="s">
         <v>191</v>
@@ -1637,7 +1641,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
-        <v>1576560807737</v>
+        <v>1576560807027</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -1660,14 +1664,14 @@
       <c r="I7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J7">
-        <v>1556689273</v>
-      </c>
-      <c r="K7">
-        <v>1576560807</v>
-      </c>
-      <c r="L7">
-        <v>1572250030</v>
+      <c r="J7" s="3">
+        <v>43586.57028935185</v>
+      </c>
+      <c r="K7" s="3">
+        <v>43816.56489583333</v>
+      </c>
+      <c r="L7" s="3">
+        <v>43766.67164351852</v>
       </c>
       <c r="M7" t="s">
         <v>192</v>
@@ -1690,7 +1694,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
-        <v>1576560766626</v>
+        <v>1576560766009</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1713,14 +1717,14 @@
       <c r="I8" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J8">
-        <v>1556689273</v>
-      </c>
-      <c r="K8">
-        <v>1576560766</v>
-      </c>
-      <c r="L8">
-        <v>1556964948</v>
+      <c r="J8" s="3">
+        <v>43586.57028935185</v>
+      </c>
+      <c r="K8" s="3">
+        <v>43816.56442129629</v>
+      </c>
+      <c r="L8" s="3">
+        <v>43589.76097222222</v>
       </c>
       <c r="M8" t="s">
         <v>193</v>
@@ -1746,7 +1750,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9">
-        <v>1576560665957</v>
+        <v>1576560665006</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1769,14 +1773,14 @@
       <c r="I9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J9">
-        <v>1556689273</v>
-      </c>
-      <c r="K9">
-        <v>1576560665</v>
-      </c>
-      <c r="L9">
-        <v>1582505800</v>
+      <c r="J9" s="3">
+        <v>43586.57028935185</v>
+      </c>
+      <c r="K9" s="3">
+        <v>43816.56325231482</v>
+      </c>
+      <c r="L9" s="3">
+        <v>43885.37268518518</v>
       </c>
       <c r="M9" t="s">
         <v>194</v>
@@ -1788,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s">
         <v>253</v>
@@ -1802,7 +1806,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
-        <v>1576560318472</v>
+        <v>1576560318118</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1825,14 +1829,14 @@
       <c r="I10" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J10">
-        <v>1575885138</v>
-      </c>
-      <c r="K10">
-        <v>1576560318</v>
-      </c>
-      <c r="L10">
-        <v>1576560318</v>
+      <c r="J10" s="3">
+        <v>43808.74465277778</v>
+      </c>
+      <c r="K10" s="3">
+        <v>43816.55923611111</v>
+      </c>
+      <c r="L10" s="3">
+        <v>43816.55923611111</v>
       </c>
       <c r="M10" t="s">
         <v>195</v>
@@ -1858,7 +1862,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
-        <v>1576560302023</v>
+        <v>1576560302915</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1881,14 +1885,14 @@
       <c r="I11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J11">
-        <v>1575885138</v>
-      </c>
-      <c r="K11">
-        <v>1576560302</v>
-      </c>
-      <c r="L11">
-        <v>1576072033</v>
+      <c r="J11" s="3">
+        <v>43808.74465277778</v>
+      </c>
+      <c r="K11" s="3">
+        <v>43816.55905092593</v>
+      </c>
+      <c r="L11" s="3">
+        <v>43810.90778935186</v>
       </c>
       <c r="M11" t="s">
         <v>196</v>
@@ -1914,7 +1918,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
-        <v>1576560276691</v>
+        <v>1576560276760</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1937,14 +1941,14 @@
       <c r="I12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J12">
-        <v>1575962740</v>
-      </c>
-      <c r="K12">
-        <v>1576560276</v>
-      </c>
-      <c r="L12">
-        <v>1576564780</v>
+      <c r="J12" s="3">
+        <v>43809.64282407407</v>
+      </c>
+      <c r="K12" s="3">
+        <v>43816.55875</v>
+      </c>
+      <c r="L12" s="3">
+        <v>43816.61087962963</v>
       </c>
       <c r="M12" t="s">
         <v>197</v>
@@ -1970,7 +1974,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13">
-        <v>1576560242252</v>
+        <v>1576560242568</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1993,14 +1997,14 @@
       <c r="I13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J13">
-        <v>1560674955</v>
-      </c>
-      <c r="K13">
-        <v>1576560242</v>
-      </c>
-      <c r="L13">
-        <v>1576560242</v>
+      <c r="J13" s="3">
+        <v>43632.70086805556</v>
+      </c>
+      <c r="K13" s="3">
+        <v>43816.55835648148</v>
+      </c>
+      <c r="L13" s="3">
+        <v>43816.55835648148</v>
       </c>
       <c r="M13" t="s">
         <v>198</v>
@@ -2026,19 +2030,19 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14">
-        <v>1576560150134</v>
+        <v>1576560150079</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="D14">
-        <v>25486</v>
+        <v>25485</v>
       </c>
       <c r="E14">
         <v>494</v>
       </c>
       <c r="F14">
-        <v>72397</v>
+        <v>72436</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>91</v>
@@ -2046,26 +2050,26 @@
       <c r="H14" t="s">
         <v>126</v>
       </c>
-      <c r="J14">
-        <v>1546902851</v>
-      </c>
-      <c r="K14">
-        <v>1576560150</v>
-      </c>
-      <c r="L14">
-        <v>1583484470</v>
+      <c r="J14" s="3">
+        <v>43473.3015162037</v>
+      </c>
+      <c r="K14" s="3">
+        <v>43816.55729166666</v>
+      </c>
+      <c r="L14" s="3">
+        <v>43896.69988425926</v>
       </c>
       <c r="M14" t="s">
         <v>199</v>
       </c>
       <c r="N14">
-        <v>25873</v>
+        <v>25880</v>
       </c>
       <c r="O14">
         <v>970</v>
       </c>
       <c r="P14">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="Q14" t="s">
         <v>255</v>
@@ -2079,19 +2083,19 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15">
-        <v>1576560123627</v>
+        <v>1576560123489</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>25486</v>
+        <v>25485</v>
       </c>
       <c r="E15">
         <v>494</v>
       </c>
       <c r="F15">
-        <v>72397</v>
+        <v>72436</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>91</v>
@@ -2099,26 +2103,26 @@
       <c r="H15" t="s">
         <v>126</v>
       </c>
-      <c r="J15">
-        <v>1546902851</v>
-      </c>
-      <c r="K15">
-        <v>1576560123</v>
-      </c>
-      <c r="L15">
-        <v>1567766460</v>
+      <c r="J15" s="3">
+        <v>43473.3015162037</v>
+      </c>
+      <c r="K15" s="3">
+        <v>43816.55697916666</v>
+      </c>
+      <c r="L15" s="3">
+        <v>43714.77847222222</v>
       </c>
       <c r="M15" t="s">
         <v>200</v>
       </c>
       <c r="N15">
-        <v>20001</v>
+        <v>20009</v>
       </c>
       <c r="O15">
         <v>484</v>
       </c>
       <c r="P15">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="Q15" t="s">
         <v>126</v>
@@ -2129,19 +2133,19 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16">
-        <v>1576560008963</v>
+        <v>1576560008123</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>25486</v>
+        <v>25485</v>
       </c>
       <c r="E16">
         <v>494</v>
       </c>
       <c r="F16">
-        <v>72397</v>
+        <v>72436</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>91</v>
@@ -2149,20 +2153,20 @@
       <c r="H16" t="s">
         <v>126</v>
       </c>
-      <c r="J16">
-        <v>1546902851</v>
-      </c>
-      <c r="K16">
-        <v>1576560008</v>
-      </c>
-      <c r="L16">
-        <v>1565269378</v>
+      <c r="J16" s="3">
+        <v>43473.3015162037</v>
+      </c>
+      <c r="K16" s="3">
+        <v>43816.55564814815</v>
+      </c>
+      <c r="L16" s="3">
+        <v>43685.87706018519</v>
       </c>
       <c r="M16" t="s">
         <v>201</v>
       </c>
       <c r="N16">
-        <v>35045</v>
+        <v>35051</v>
       </c>
       <c r="O16">
         <v>1901</v>
@@ -2182,19 +2186,19 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17">
-        <v>1576559585427</v>
+        <v>1576559585487</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>25486</v>
+        <v>25485</v>
       </c>
       <c r="E17">
         <v>494</v>
       </c>
       <c r="F17">
-        <v>72397</v>
+        <v>72436</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>91</v>
@@ -2202,26 +2206,26 @@
       <c r="H17" t="s">
         <v>126</v>
       </c>
-      <c r="J17">
-        <v>1546902851</v>
-      </c>
-      <c r="K17">
-        <v>1576559585</v>
-      </c>
-      <c r="L17">
-        <v>1584259815</v>
+      <c r="J17" s="3">
+        <v>43473.3015162037</v>
+      </c>
+      <c r="K17" s="3">
+        <v>43816.55075231481</v>
+      </c>
+      <c r="L17" s="3">
+        <v>43905.67378472222</v>
       </c>
       <c r="M17" t="s">
         <v>202</v>
       </c>
       <c r="N17">
-        <v>26949</v>
+        <v>26956</v>
       </c>
       <c r="O17">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="P17">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="Q17" t="s">
         <v>257</v>
@@ -2235,19 +2239,19 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18">
-        <v>1576548058676</v>
+        <v>1576548058345</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="D18">
-        <v>25486</v>
+        <v>25485</v>
       </c>
       <c r="E18">
         <v>494</v>
       </c>
       <c r="F18">
-        <v>72397</v>
+        <v>72436</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>91</v>
@@ -2255,26 +2259,26 @@
       <c r="H18" t="s">
         <v>126</v>
       </c>
-      <c r="J18">
-        <v>1546902851</v>
-      </c>
-      <c r="K18">
-        <v>1576548058</v>
-      </c>
-      <c r="L18">
-        <v>1584270748</v>
+      <c r="J18" s="3">
+        <v>43473.3015162037</v>
+      </c>
+      <c r="K18" s="3">
+        <v>43816.41733796296</v>
+      </c>
+      <c r="L18" s="3">
+        <v>43905.80032407407</v>
       </c>
       <c r="M18" t="s">
         <v>203</v>
       </c>
       <c r="N18">
-        <v>23019</v>
+        <v>23024</v>
       </c>
       <c r="O18">
         <v>1071</v>
       </c>
       <c r="P18">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="Q18" t="s">
         <v>258</v>
@@ -2288,19 +2292,19 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19">
-        <v>1576548010968</v>
+        <v>1576548010695</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="D19">
-        <v>25486</v>
+        <v>25485</v>
       </c>
       <c r="E19">
         <v>494</v>
       </c>
       <c r="F19">
-        <v>72397</v>
+        <v>72436</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>91</v>
@@ -2308,26 +2312,26 @@
       <c r="H19" t="s">
         <v>126</v>
       </c>
-      <c r="J19">
-        <v>1546902851</v>
-      </c>
-      <c r="K19">
-        <v>1576548010</v>
-      </c>
-      <c r="L19">
-        <v>1573402683</v>
+      <c r="J19" s="3">
+        <v>43473.3015162037</v>
+      </c>
+      <c r="K19" s="3">
+        <v>43816.41678240741</v>
+      </c>
+      <c r="L19" s="3">
+        <v>43780.01253472222</v>
       </c>
       <c r="M19" t="s">
         <v>204</v>
       </c>
       <c r="N19">
-        <v>18664</v>
+        <v>18678</v>
       </c>
       <c r="O19">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P19">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="Q19" t="s">
         <v>126</v>
@@ -2338,7 +2342,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20">
-        <v>1572955379573</v>
+        <v>1572955379381</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -2361,14 +2365,14 @@
       <c r="I20" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J20">
-        <v>1570953762</v>
-      </c>
-      <c r="K20">
-        <v>1572955379</v>
-      </c>
-      <c r="L20">
-        <v>1572955379</v>
+      <c r="J20" s="3">
+        <v>43751.66854166667</v>
+      </c>
+      <c r="K20" s="3">
+        <v>43774.83540509259</v>
+      </c>
+      <c r="L20" s="3">
+        <v>43774.83540509259</v>
       </c>
       <c r="M20" t="s">
         <v>205</v>
@@ -2394,7 +2398,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21">
-        <v>1572954580418</v>
+        <v>1572954580975</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -2403,13 +2407,13 @@
         <v>63</v>
       </c>
       <c r="D21">
-        <v>7273</v>
+        <v>7289</v>
       </c>
       <c r="E21">
         <v>107</v>
       </c>
       <c r="F21">
-        <v>19294</v>
+        <v>19324</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>93</v>
@@ -2420,20 +2424,20 @@
       <c r="I21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J21">
-        <v>1521902826</v>
-      </c>
-      <c r="K21">
-        <v>1572954580</v>
-      </c>
-      <c r="L21">
-        <v>1567171977</v>
+      <c r="J21" s="3">
+        <v>43183.949375</v>
+      </c>
+      <c r="K21" s="3">
+        <v>43774.82615740741</v>
+      </c>
+      <c r="L21" s="3">
+        <v>43707.89788194445</v>
       </c>
       <c r="M21" t="s">
         <v>206</v>
       </c>
       <c r="N21">
-        <v>6678</v>
+        <v>6681</v>
       </c>
       <c r="O21">
         <v>295</v>
@@ -2453,7 +2457,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22">
-        <v>1570242522011</v>
+        <v>1570242522570</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -2468,7 +2472,7 @@
         <v>38</v>
       </c>
       <c r="F22">
-        <v>78591</v>
+        <v>78592</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>94</v>
@@ -2479,14 +2483,14 @@
       <c r="I22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J22">
-        <v>1433987078</v>
-      </c>
-      <c r="K22">
-        <v>1570242522</v>
-      </c>
-      <c r="L22">
-        <v>1435943086</v>
+      <c r="J22" s="3">
+        <v>42166.40599537037</v>
+      </c>
+      <c r="K22" s="3">
+        <v>43743.43659722222</v>
+      </c>
+      <c r="L22" s="3">
+        <v>42189.04497685185</v>
       </c>
       <c r="M22" t="s">
         <v>207</v>
@@ -2512,7 +2516,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23">
-        <v>1570206931813</v>
+        <v>1570206931759</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -2527,7 +2531,7 @@
         <v>38</v>
       </c>
       <c r="F23">
-        <v>78591</v>
+        <v>78592</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>94</v>
@@ -2538,20 +2542,20 @@
       <c r="I23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J23">
-        <v>1433987078</v>
-      </c>
-      <c r="K23">
-        <v>1570206931</v>
-      </c>
-      <c r="L23">
-        <v>1575298371</v>
+      <c r="J23" s="3">
+        <v>42166.40599537037</v>
+      </c>
+      <c r="K23" s="3">
+        <v>43743.02466435185</v>
+      </c>
+      <c r="L23" s="3">
+        <v>43801.95336805555</v>
       </c>
       <c r="M23" t="s">
         <v>208</v>
       </c>
       <c r="N23">
-        <v>5943</v>
+        <v>5945</v>
       </c>
       <c r="O23">
         <v>147</v>
@@ -2571,7 +2575,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24">
-        <v>1570205535522</v>
+        <v>1570205535230</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -2586,7 +2590,7 @@
         <v>38</v>
       </c>
       <c r="F24">
-        <v>78591</v>
+        <v>78592</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>94</v>
@@ -2597,14 +2601,14 @@
       <c r="I24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J24">
-        <v>1433987078</v>
-      </c>
-      <c r="K24">
-        <v>1570205535</v>
-      </c>
-      <c r="L24">
-        <v>1437755582</v>
+      <c r="J24" s="3">
+        <v>42166.40599537037</v>
+      </c>
+      <c r="K24" s="3">
+        <v>43743.00850694445</v>
+      </c>
+      <c r="L24" s="3">
+        <v>42210.02293981481</v>
       </c>
       <c r="M24" t="s">
         <v>209</v>
@@ -2630,19 +2634,19 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25">
-        <v>1570191546394</v>
+        <v>1570191546964</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="D25">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E25">
         <v>133</v>
       </c>
       <c r="F25">
-        <v>9591</v>
+        <v>9595</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>95</v>
@@ -2653,20 +2657,20 @@
       <c r="I25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J25">
-        <v>1416834570</v>
-      </c>
-      <c r="K25">
-        <v>1570191546</v>
-      </c>
-      <c r="L25">
-        <v>1474467818</v>
+      <c r="J25" s="3">
+        <v>41967.88159722222</v>
+      </c>
+      <c r="K25" s="3">
+        <v>43742.84659722223</v>
+      </c>
+      <c r="L25" s="3">
+        <v>42634.9330787037</v>
       </c>
       <c r="M25" t="s">
         <v>210</v>
       </c>
       <c r="N25">
-        <v>3697</v>
+        <v>3699</v>
       </c>
       <c r="O25">
         <v>57</v>
@@ -2686,7 +2690,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26">
-        <v>1570191138545</v>
+        <v>1570191138796</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2701,7 +2705,7 @@
         <v>38</v>
       </c>
       <c r="F26">
-        <v>78591</v>
+        <v>78592</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>94</v>
@@ -2712,14 +2716,14 @@
       <c r="I26" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J26">
-        <v>1433987078</v>
-      </c>
-      <c r="K26">
-        <v>1570191138</v>
-      </c>
-      <c r="L26">
-        <v>1519548642</v>
+      <c r="J26" s="3">
+        <v>42166.40599537037</v>
+      </c>
+      <c r="K26" s="3">
+        <v>43742.841875</v>
+      </c>
+      <c r="L26" s="3">
+        <v>43156.701875</v>
       </c>
       <c r="M26" t="s">
         <v>211</v>
@@ -2745,7 +2749,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27">
-        <v>1570190928211</v>
+        <v>1570190928372</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -2760,7 +2764,7 @@
         <v>38</v>
       </c>
       <c r="F27">
-        <v>78591</v>
+        <v>78592</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>94</v>
@@ -2771,14 +2775,14 @@
       <c r="I27" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J27">
-        <v>1433987078</v>
-      </c>
-      <c r="K27">
-        <v>1570190928</v>
-      </c>
-      <c r="L27">
-        <v>1519577819</v>
+      <c r="J27" s="3">
+        <v>42166.40599537037</v>
+      </c>
+      <c r="K27" s="3">
+        <v>43742.83944444444</v>
+      </c>
+      <c r="L27" s="3">
+        <v>43157.03957175926</v>
       </c>
       <c r="M27" t="s">
         <v>212</v>
@@ -2801,7 +2805,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28">
-        <v>1570190740746</v>
+        <v>1570190740078</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -2816,7 +2820,7 @@
         <v>38</v>
       </c>
       <c r="F28">
-        <v>78591</v>
+        <v>78592</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>94</v>
@@ -2827,14 +2831,14 @@
       <c r="I28" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J28">
-        <v>1433987078</v>
-      </c>
-      <c r="K28">
-        <v>1570190740</v>
-      </c>
-      <c r="L28">
-        <v>1520173344</v>
+      <c r="J28" s="3">
+        <v>42166.40599537037</v>
+      </c>
+      <c r="K28" s="3">
+        <v>43742.83726851852</v>
+      </c>
+      <c r="L28" s="3">
+        <v>43163.93222222223</v>
       </c>
       <c r="M28" t="s">
         <v>213</v>
@@ -2860,19 +2864,19 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29">
-        <v>1568619686832</v>
+        <v>1568619686242</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="D29">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E29">
         <v>133</v>
       </c>
       <c r="F29">
-        <v>9591</v>
+        <v>9595</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>95</v>
@@ -2883,20 +2887,20 @@
       <c r="I29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J29">
-        <v>1416834570</v>
-      </c>
-      <c r="K29">
-        <v>1568619686</v>
-      </c>
-      <c r="L29">
-        <v>1567935843</v>
+      <c r="J29" s="3">
+        <v>41967.88159722222</v>
+      </c>
+      <c r="K29" s="3">
+        <v>43724.65377314815</v>
+      </c>
+      <c r="L29" s="3">
+        <v>43716.73892361111</v>
       </c>
       <c r="M29" t="s">
         <v>214</v>
       </c>
       <c r="N29">
-        <v>10845</v>
+        <v>10848</v>
       </c>
       <c r="O29">
         <v>401</v>
@@ -2916,7 +2920,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30">
-        <v>1568450811505</v>
+        <v>1568450811786</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -2942,14 +2946,14 @@
       <c r="I30" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J30">
-        <v>1565106208</v>
-      </c>
-      <c r="K30">
-        <v>1568450811</v>
-      </c>
-      <c r="L30">
-        <v>1568450811</v>
+      <c r="J30" s="3">
+        <v>43683.98851851852</v>
+      </c>
+      <c r="K30" s="3">
+        <v>43722.69920138889</v>
+      </c>
+      <c r="L30" s="3">
+        <v>43722.69920138889</v>
       </c>
       <c r="M30" t="s">
         <v>215</v>
@@ -2975,7 +2979,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31">
-        <v>1568450784471</v>
+        <v>1568450784631</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -3001,14 +3005,14 @@
       <c r="I31" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J31">
-        <v>1568053422</v>
-      </c>
-      <c r="K31">
-        <v>1568450784</v>
-      </c>
-      <c r="L31">
-        <v>1576562617</v>
+      <c r="J31" s="3">
+        <v>43718.09979166667</v>
+      </c>
+      <c r="K31" s="3">
+        <v>43722.69888888889</v>
+      </c>
+      <c r="L31" s="3">
+        <v>43816.58584490741</v>
       </c>
       <c r="M31" t="s">
         <v>216</v>
@@ -3034,7 +3038,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32">
-        <v>1568450658469</v>
+        <v>1568450658312</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -3057,14 +3061,14 @@
       <c r="I32" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J32">
-        <v>1552386595</v>
-      </c>
-      <c r="K32">
-        <v>1568450658</v>
-      </c>
-      <c r="L32">
-        <v>1568450669</v>
+      <c r="J32" s="3">
+        <v>43536.77077546297</v>
+      </c>
+      <c r="K32" s="3">
+        <v>43722.69743055556</v>
+      </c>
+      <c r="L32" s="3">
+        <v>43722.69755787037</v>
       </c>
       <c r="M32" t="s">
         <v>217</v>
@@ -3090,7 +3094,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33">
-        <v>1568450628311</v>
+        <v>1568450628707</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -3113,14 +3117,14 @@
       <c r="I33" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J33">
-        <v>1532707011</v>
-      </c>
-      <c r="K33">
-        <v>1568450628</v>
-      </c>
-      <c r="L33">
-        <v>1568450628</v>
+      <c r="J33" s="3">
+        <v>43308.9978125</v>
+      </c>
+      <c r="K33" s="3">
+        <v>43722.69708333333</v>
+      </c>
+      <c r="L33" s="3">
+        <v>43722.69708333333</v>
       </c>
       <c r="M33" t="s">
         <v>218</v>
@@ -3146,7 +3150,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34">
-        <v>1568450563854</v>
+        <v>1568450563978</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -3172,14 +3176,14 @@
       <c r="I34" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J34">
-        <v>1565436172</v>
-      </c>
-      <c r="K34">
-        <v>1568450563</v>
-      </c>
-      <c r="L34">
-        <v>1568450563</v>
+      <c r="J34" s="3">
+        <v>43687.8075462963</v>
+      </c>
+      <c r="K34" s="3">
+        <v>43722.69633101852</v>
+      </c>
+      <c r="L34" s="3">
+        <v>43722.69633101852</v>
       </c>
       <c r="M34" t="s">
         <v>219</v>
@@ -3205,7 +3209,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35">
-        <v>1568450541487</v>
+        <v>1568450541610</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -3228,14 +3232,14 @@
       <c r="I35" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J35">
-        <v>1544584582</v>
-      </c>
-      <c r="K35">
-        <v>1568450541</v>
-      </c>
-      <c r="L35">
-        <v>1568450541</v>
+      <c r="J35" s="3">
+        <v>43446.46969907408</v>
+      </c>
+      <c r="K35" s="3">
+        <v>43722.69607638889</v>
+      </c>
+      <c r="L35" s="3">
+        <v>43722.69607638889</v>
       </c>
       <c r="M35" t="s">
         <v>220</v>
@@ -3261,7 +3265,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36">
-        <v>1562776942001</v>
+        <v>1562776942559</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -3284,14 +3288,14 @@
       <c r="I36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J36">
-        <v>1562580068</v>
-      </c>
-      <c r="K36">
-        <v>1562776942</v>
-      </c>
-      <c r="L36">
-        <v>1562776942</v>
+      <c r="J36" s="3">
+        <v>43654.75078703704</v>
+      </c>
+      <c r="K36" s="3">
+        <v>43657.0294212963</v>
+      </c>
+      <c r="L36" s="3">
+        <v>43657.0294212963</v>
       </c>
       <c r="M36" t="s">
         <v>221</v>
@@ -3317,7 +3321,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37">
-        <v>1562776856985</v>
+        <v>1562776856291</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -3340,14 +3344,14 @@
       <c r="H37" t="s">
         <v>126</v>
       </c>
-      <c r="J37">
-        <v>1561726913</v>
-      </c>
-      <c r="K37">
-        <v>1562776856</v>
-      </c>
-      <c r="L37">
-        <v>1562776856</v>
+      <c r="J37" s="3">
+        <v>43644.87630787037</v>
+      </c>
+      <c r="K37" s="3">
+        <v>43657.02842592593</v>
+      </c>
+      <c r="L37" s="3">
+        <v>43657.02842592593</v>
       </c>
       <c r="M37" t="s">
         <v>222</v>
@@ -3373,7 +3377,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38">
-        <v>1557310161540</v>
+        <v>1557310161120</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -3396,14 +3400,14 @@
       <c r="I38" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J38">
-        <v>1554988268</v>
-      </c>
-      <c r="K38">
-        <v>1557310161</v>
-      </c>
-      <c r="L38">
-        <v>1557310161</v>
+      <c r="J38" s="3">
+        <v>43566.88273148148</v>
+      </c>
+      <c r="K38" s="3">
+        <v>43593.75649305555</v>
+      </c>
+      <c r="L38" s="3">
+        <v>43593.75649305555</v>
       </c>
       <c r="M38" t="s">
         <v>223</v>
@@ -3429,7 +3433,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39">
-        <v>1555173252204</v>
+        <v>1555173252736</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -3449,20 +3453,20 @@
       <c r="H39" t="s">
         <v>126</v>
       </c>
-      <c r="J39">
-        <v>1553494293</v>
-      </c>
-      <c r="K39">
-        <v>1555173252</v>
-      </c>
-      <c r="L39">
-        <v>1554248879</v>
+      <c r="J39" s="3">
+        <v>43549.59135416667</v>
+      </c>
+      <c r="K39" s="3">
+        <v>43569.02375</v>
+      </c>
+      <c r="L39" s="3">
+        <v>43558.32498842593</v>
       </c>
       <c r="M39" t="s">
         <v>224</v>
       </c>
       <c r="N39">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="O39">
         <v>253</v>
@@ -3482,7 +3486,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40">
-        <v>1550390497266</v>
+        <v>1550390497440</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -3505,14 +3509,14 @@
       <c r="I40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J40">
-        <v>1545724897</v>
-      </c>
-      <c r="K40">
-        <v>1550390497</v>
-      </c>
-      <c r="L40">
-        <v>1550390496</v>
+      <c r="J40" s="3">
+        <v>43459.66778935185</v>
+      </c>
+      <c r="K40" s="3">
+        <v>43513.66778935185</v>
+      </c>
+      <c r="L40" s="3">
+        <v>43513.66777777778</v>
       </c>
       <c r="M40" t="s">
         <v>225</v>
@@ -3538,7 +3542,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41">
-        <v>1550390323550</v>
+        <v>1550390323217</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -3564,14 +3568,14 @@
       <c r="I41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J41">
-        <v>1547004379</v>
-      </c>
-      <c r="K41">
-        <v>1550390323</v>
-      </c>
-      <c r="L41">
-        <v>1550390322</v>
+      <c r="J41" s="3">
+        <v>43474.4766087963</v>
+      </c>
+      <c r="K41" s="3">
+        <v>43513.66577546296</v>
+      </c>
+      <c r="L41" s="3">
+        <v>43513.66576388889</v>
       </c>
       <c r="M41" t="s">
         <v>226</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42">
-        <v>1550390004844</v>
+        <v>1550390004207</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -3620,14 +3624,14 @@
       <c r="I42" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J42">
-        <v>1549374493</v>
-      </c>
-      <c r="K42">
-        <v>1550390004</v>
-      </c>
-      <c r="L42">
-        <v>1550390056</v>
+      <c r="J42" s="3">
+        <v>43501.90848379629</v>
+      </c>
+      <c r="K42" s="3">
+        <v>43513.66208333334</v>
+      </c>
+      <c r="L42" s="3">
+        <v>43513.66268518518</v>
       </c>
       <c r="M42" t="s">
         <v>227</v>
@@ -3653,7 +3657,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43">
-        <v>1550389849237</v>
+        <v>1550389849558</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -3662,13 +3666,13 @@
         <v>70</v>
       </c>
       <c r="D43">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>109</v>
@@ -3679,14 +3683,14 @@
       <c r="I43" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J43">
-        <v>1549448683</v>
-      </c>
-      <c r="K43">
-        <v>1550389849</v>
-      </c>
-      <c r="L43">
-        <v>1562777091</v>
+      <c r="J43" s="3">
+        <v>43502.76716435186</v>
+      </c>
+      <c r="K43" s="3">
+        <v>43513.66028935185</v>
+      </c>
+      <c r="L43" s="3">
+        <v>43657.03114583333</v>
       </c>
       <c r="M43" t="s">
         <v>228</v>
@@ -3712,7 +3716,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44">
-        <v>1549940930610</v>
+        <v>1549940930846</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -3738,14 +3742,14 @@
       <c r="I44" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J44">
-        <v>1545432991</v>
-      </c>
-      <c r="K44">
-        <v>1549940930</v>
-      </c>
-      <c r="L44">
-        <v>1547630724</v>
+      <c r="J44" s="3">
+        <v>43456.28924768518</v>
+      </c>
+      <c r="K44" s="3">
+        <v>43508.4644675926</v>
+      </c>
+      <c r="L44" s="3">
+        <v>43481.72597222222</v>
       </c>
       <c r="M44" t="s">
         <v>229</v>
@@ -3771,7 +3775,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45">
-        <v>1549940734596</v>
+        <v>1549940734863</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -3779,8 +3783,8 @@
       <c r="G45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K45">
-        <v>1549940734</v>
+      <c r="K45" s="3">
+        <v>43508.46219907407</v>
       </c>
       <c r="Q45" t="s">
         <v>126</v>
@@ -3791,7 +3795,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46">
-        <v>1549935372994</v>
+        <v>1549935372871</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
@@ -3806,7 +3810,7 @@
         <v>303</v>
       </c>
       <c r="F46">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>112</v>
@@ -3814,20 +3818,20 @@
       <c r="H46" t="s">
         <v>126</v>
       </c>
-      <c r="J46">
-        <v>1548915195</v>
-      </c>
-      <c r="K46">
-        <v>1549935372</v>
-      </c>
-      <c r="L46">
-        <v>1549633845</v>
+      <c r="J46" s="3">
+        <v>43496.59253472222</v>
+      </c>
+      <c r="K46" s="3">
+        <v>43508.40013888889</v>
+      </c>
+      <c r="L46" s="3">
+        <v>43504.91024305556</v>
       </c>
       <c r="M46" t="s">
         <v>230</v>
       </c>
       <c r="N46">
-        <v>74613</v>
+        <v>74611</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3844,7 +3848,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47">
-        <v>1549733759064</v>
+        <v>1549733759354</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -3852,8 +3856,8 @@
       <c r="G47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K47">
-        <v>1549733759</v>
+      <c r="K47" s="3">
+        <v>43506.0666550926</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -3870,7 +3874,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48">
-        <v>1548692972064</v>
+        <v>1548692972978</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -3896,14 +3900,14 @@
       <c r="I48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J48">
-        <v>1537241328</v>
-      </c>
-      <c r="K48">
-        <v>1548692972</v>
-      </c>
-      <c r="L48">
-        <v>1542125095</v>
+      <c r="J48" s="3">
+        <v>43361.47833333333</v>
+      </c>
+      <c r="K48" s="3">
+        <v>43494.02050925926</v>
+      </c>
+      <c r="L48" s="3">
+        <v>43418.00341435185</v>
       </c>
       <c r="M48" t="s">
         <v>231</v>
@@ -3929,7 +3933,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49">
-        <v>1545549098240</v>
+        <v>1545549098544</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -3955,14 +3959,14 @@
       <c r="I49" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J49">
-        <v>1542627049</v>
-      </c>
-      <c r="K49">
-        <v>1545549098</v>
-      </c>
-      <c r="L49">
-        <v>1545549169</v>
+      <c r="J49" s="3">
+        <v>43423.81306712963</v>
+      </c>
+      <c r="K49" s="3">
+        <v>43457.6330787037</v>
+      </c>
+      <c r="L49" s="3">
+        <v>43457.63390046296</v>
       </c>
       <c r="M49" t="s">
         <v>232</v>
@@ -3988,7 +3992,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50">
-        <v>1544157858503</v>
+        <v>1544157858446</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -4011,14 +4015,14 @@
       <c r="H50" t="s">
         <v>126</v>
       </c>
-      <c r="J50">
-        <v>1541866609</v>
-      </c>
-      <c r="K50">
-        <v>1544157858</v>
-      </c>
-      <c r="L50">
-        <v>1541891288</v>
+      <c r="J50" s="3">
+        <v>43415.01167824074</v>
+      </c>
+      <c r="K50" s="3">
+        <v>43441.53076388889</v>
+      </c>
+      <c r="L50" s="3">
+        <v>43415.29731481482</v>
       </c>
       <c r="M50" t="s">
         <v>233</v>
@@ -4044,7 +4048,7 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51">
-        <v>1543913217691</v>
+        <v>1543913217693</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -4053,13 +4057,13 @@
         <v>76</v>
       </c>
       <c r="D51">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="E51">
         <v>37</v>
       </c>
       <c r="F51">
-        <v>14001</v>
+        <v>14006</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>117</v>
@@ -4070,14 +4074,14 @@
       <c r="I51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J51">
-        <v>1524474541</v>
-      </c>
-      <c r="K51">
-        <v>1543913217</v>
-      </c>
-      <c r="L51">
-        <v>1594478862</v>
+      <c r="J51" s="3">
+        <v>43213.7145949074</v>
+      </c>
+      <c r="K51" s="3">
+        <v>43438.69927083333</v>
+      </c>
+      <c r="L51" s="3">
+        <v>44023.94979166667</v>
       </c>
       <c r="M51" t="s">
         <v>234</v>
@@ -4103,7 +4107,7 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52">
-        <v>1543912929501</v>
+        <v>1543912929979</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -4112,13 +4116,13 @@
         <v>76</v>
       </c>
       <c r="D52">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="E52">
         <v>37</v>
       </c>
       <c r="F52">
-        <v>14001</v>
+        <v>14006</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>117</v>
@@ -4129,20 +4133,20 @@
       <c r="I52" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J52">
-        <v>1524474541</v>
-      </c>
-      <c r="K52">
-        <v>1543912929</v>
-      </c>
-      <c r="L52">
-        <v>1525312432</v>
+      <c r="J52" s="3">
+        <v>43213.7145949074</v>
+      </c>
+      <c r="K52" s="3">
+        <v>43438.6959375</v>
+      </c>
+      <c r="L52" s="3">
+        <v>43223.41240740741</v>
       </c>
       <c r="M52" t="s">
         <v>235</v>
       </c>
       <c r="N52">
-        <v>6480</v>
+        <v>6479</v>
       </c>
       <c r="O52">
         <v>440</v>
@@ -4162,7 +4166,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53">
-        <v>1543912739754</v>
+        <v>1543912739424</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -4171,13 +4175,13 @@
         <v>76</v>
       </c>
       <c r="D53">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="E53">
         <v>37</v>
       </c>
       <c r="F53">
-        <v>14001</v>
+        <v>14006</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>117</v>
@@ -4188,14 +4192,14 @@
       <c r="I53" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J53">
-        <v>1524474541</v>
-      </c>
-      <c r="K53">
-        <v>1543912739</v>
-      </c>
-      <c r="L53">
-        <v>1525936749</v>
+      <c r="J53" s="3">
+        <v>43213.7145949074</v>
+      </c>
+      <c r="K53" s="3">
+        <v>43438.69373842593</v>
+      </c>
+      <c r="L53" s="3">
+        <v>43230.63829861111</v>
       </c>
       <c r="M53" t="s">
         <v>236</v>
@@ -4221,7 +4225,7 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54">
-        <v>1543912713199</v>
+        <v>1543912713426</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
@@ -4230,13 +4234,13 @@
         <v>76</v>
       </c>
       <c r="D54">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="E54">
         <v>37</v>
       </c>
       <c r="F54">
-        <v>14001</v>
+        <v>14006</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>117</v>
@@ -4247,14 +4251,14 @@
       <c r="I54" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J54">
-        <v>1524474541</v>
-      </c>
-      <c r="K54">
-        <v>1543912713</v>
-      </c>
-      <c r="L54">
-        <v>1528203797</v>
+      <c r="J54" s="3">
+        <v>43213.7145949074</v>
+      </c>
+      <c r="K54" s="3">
+        <v>43438.6934375</v>
+      </c>
+      <c r="L54" s="3">
+        <v>43256.87728009259</v>
       </c>
       <c r="M54" t="s">
         <v>237</v>
@@ -4280,7 +4284,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55">
-        <v>1543912610936</v>
+        <v>1543912610180</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -4289,13 +4293,13 @@
         <v>76</v>
       </c>
       <c r="D55">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="E55">
         <v>37</v>
       </c>
       <c r="F55">
-        <v>14001</v>
+        <v>14006</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>117</v>
@@ -4306,14 +4310,14 @@
       <c r="I55" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J55">
-        <v>1524474541</v>
-      </c>
-      <c r="K55">
-        <v>1543912610</v>
-      </c>
-      <c r="L55">
-        <v>1533184247</v>
+      <c r="J55" s="3">
+        <v>43213.7145949074</v>
+      </c>
+      <c r="K55" s="3">
+        <v>43438.69224537037</v>
+      </c>
+      <c r="L55" s="3">
+        <v>43314.52137731481</v>
       </c>
       <c r="M55" t="s">
         <v>238</v>
@@ -4339,7 +4343,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56">
-        <v>1543746284672</v>
+        <v>1543746284394</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -4362,14 +4366,14 @@
       <c r="H56" t="s">
         <v>126</v>
       </c>
-      <c r="J56">
-        <v>1507861037</v>
-      </c>
-      <c r="K56">
-        <v>1543746284</v>
-      </c>
-      <c r="L56">
-        <v>1543746284</v>
+      <c r="J56" s="3">
+        <v>43021.42866898148</v>
+      </c>
+      <c r="K56" s="3">
+        <v>43436.76717592592</v>
+      </c>
+      <c r="L56" s="3">
+        <v>43436.76717592592</v>
       </c>
       <c r="M56" t="s">
         <v>239</v>
@@ -4395,7 +4399,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57">
-        <v>1543592424526</v>
+        <v>1543592424786</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -4421,14 +4425,14 @@
       <c r="I57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J57">
-        <v>1437378927</v>
-      </c>
-      <c r="K57">
-        <v>1543592424</v>
-      </c>
-      <c r="L57">
-        <v>1543592424</v>
+      <c r="J57" s="3">
+        <v>42205.66350694445</v>
+      </c>
+      <c r="K57" s="3">
+        <v>43434.98638888889</v>
+      </c>
+      <c r="L57" s="3">
+        <v>43434.98638888889</v>
       </c>
       <c r="M57" t="s">
         <v>240</v>
@@ -4454,7 +4458,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58">
-        <v>1543117543840</v>
+        <v>1543117543445</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
@@ -4480,14 +4484,14 @@
       <c r="I58" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J58">
-        <v>1492759680</v>
-      </c>
-      <c r="K58">
-        <v>1543117543</v>
-      </c>
-      <c r="L58">
-        <v>1514653031</v>
+      <c r="J58" s="3">
+        <v>42846.64444444444</v>
+      </c>
+      <c r="K58" s="3">
+        <v>43429.49008101852</v>
+      </c>
+      <c r="L58" s="3">
+        <v>43100.03971064815</v>
       </c>
       <c r="M58" t="s">
         <v>241</v>
@@ -4513,7 +4517,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59">
-        <v>1540174884606</v>
+        <v>1540174884803</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -4522,13 +4526,13 @@
         <v>80</v>
       </c>
       <c r="D59">
-        <v>22618</v>
+        <v>22614</v>
       </c>
       <c r="E59">
         <v>127</v>
       </c>
       <c r="F59">
-        <v>160813</v>
+        <v>160839</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>121</v>
@@ -4539,20 +4543,20 @@
       <c r="I59" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J59">
-        <v>1536648965</v>
-      </c>
-      <c r="K59">
-        <v>1540174884</v>
-      </c>
-      <c r="L59">
-        <v>1572347155</v>
+      <c r="J59" s="3">
+        <v>43354.62228009259</v>
+      </c>
+      <c r="K59" s="3">
+        <v>43395.43152777778</v>
+      </c>
+      <c r="L59" s="3">
+        <v>43767.79577546296</v>
       </c>
       <c r="M59" t="s">
         <v>242</v>
       </c>
       <c r="N59">
-        <v>29654</v>
+        <v>29652</v>
       </c>
       <c r="O59">
         <v>1001</v>
@@ -4572,7 +4576,7 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60">
-        <v>1540174590339</v>
+        <v>1540174590232</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
@@ -4581,13 +4585,13 @@
         <v>80</v>
       </c>
       <c r="D60">
-        <v>22618</v>
+        <v>22614</v>
       </c>
       <c r="E60">
         <v>127</v>
       </c>
       <c r="F60">
-        <v>160813</v>
+        <v>160839</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>121</v>
@@ -4598,23 +4602,23 @@
       <c r="I60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J60">
-        <v>1536648965</v>
-      </c>
-      <c r="K60">
-        <v>1540174590</v>
-      </c>
-      <c r="L60">
-        <v>1537356591</v>
+      <c r="J60" s="3">
+        <v>43354.62228009259</v>
+      </c>
+      <c r="K60" s="3">
+        <v>43395.428125</v>
+      </c>
+      <c r="L60" s="3">
+        <v>43362.81239583333</v>
       </c>
       <c r="M60" t="s">
         <v>243</v>
       </c>
       <c r="N60">
-        <v>21091</v>
+        <v>21103</v>
       </c>
       <c r="O60">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="P60">
         <v>3332</v>
@@ -4631,7 +4635,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61">
-        <v>1540174534065</v>
+        <v>1540174534425</v>
       </c>
       <c r="B61" t="s">
         <v>57</v>
@@ -4640,13 +4644,13 @@
         <v>80</v>
       </c>
       <c r="D61">
-        <v>22618</v>
+        <v>22614</v>
       </c>
       <c r="E61">
         <v>127</v>
       </c>
       <c r="F61">
-        <v>160813</v>
+        <v>160839</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>121</v>
@@ -4657,20 +4661,20 @@
       <c r="I61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J61">
-        <v>1536648965</v>
-      </c>
-      <c r="K61">
-        <v>1540174534</v>
-      </c>
-      <c r="L61">
-        <v>1569744660</v>
+      <c r="J61" s="3">
+        <v>43354.62228009259</v>
+      </c>
+      <c r="K61" s="3">
+        <v>43395.42747685185</v>
+      </c>
+      <c r="L61" s="3">
+        <v>43737.67430555556</v>
       </c>
       <c r="M61" t="s">
         <v>244</v>
       </c>
       <c r="N61">
-        <v>17941</v>
+        <v>17942</v>
       </c>
       <c r="O61">
         <v>799</v>
@@ -4690,7 +4694,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62">
-        <v>1539590437015</v>
+        <v>1539590437463</v>
       </c>
       <c r="B62" t="s">
         <v>58</v>
@@ -4699,13 +4703,13 @@
         <v>81</v>
       </c>
       <c r="D62">
-        <v>6048</v>
+        <v>6049</v>
       </c>
       <c r="E62">
         <v>159</v>
       </c>
       <c r="F62">
-        <v>20151</v>
+        <v>20154</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>122</v>
@@ -4716,14 +4720,14 @@
       <c r="I62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J62">
-        <v>1525525152</v>
-      </c>
-      <c r="K62">
-        <v>1539590437</v>
-      </c>
-      <c r="L62">
-        <v>1529203055</v>
+      <c r="J62" s="3">
+        <v>43225.87444444445</v>
+      </c>
+      <c r="K62" s="3">
+        <v>43388.66709490741</v>
+      </c>
+      <c r="L62" s="3">
+        <v>43268.44276620371</v>
       </c>
       <c r="M62" t="s">
         <v>245</v>
@@ -4749,7 +4753,7 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63">
-        <v>1539589322528</v>
+        <v>1539589322254</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
@@ -4757,8 +4761,8 @@
       <c r="G63" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K63">
-        <v>1539589322</v>
+      <c r="K63" s="3">
+        <v>43388.65418981481</v>
       </c>
       <c r="M63" t="s">
         <v>246</v>
@@ -4781,7 +4785,7 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64">
-        <v>1539007993948</v>
+        <v>1539007993882</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
@@ -4804,14 +4808,14 @@
       <c r="I64" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J64">
-        <v>1538205424</v>
-      </c>
-      <c r="K64">
-        <v>1539007993</v>
-      </c>
-      <c r="L64">
-        <v>1539007993</v>
+      <c r="J64" s="3">
+        <v>43372.63685185185</v>
+      </c>
+      <c r="K64" s="3">
+        <v>43381.9258449074</v>
+      </c>
+      <c r="L64" s="3">
+        <v>43381.9258449074</v>
       </c>
       <c r="M64" t="s">
         <v>247</v>
@@ -4837,7 +4841,7 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65">
-        <v>1538991899187</v>
+        <v>1538991899051</v>
       </c>
       <c r="B65" t="s">
         <v>56</v>
@@ -4863,14 +4867,14 @@
       <c r="I65" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J65">
-        <v>1492759680</v>
-      </c>
-      <c r="K65">
-        <v>1538991899</v>
-      </c>
-      <c r="L65">
-        <v>1538991899</v>
+      <c r="J65" s="3">
+        <v>42846.64444444444</v>
+      </c>
+      <c r="K65" s="3">
+        <v>43381.73957175926</v>
+      </c>
+      <c r="L65" s="3">
+        <v>43381.73957175926</v>
       </c>
       <c r="M65" t="s">
         <v>248</v>
